--- a/data/trans_bre/P16A98-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A98-Provincia-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,54</t>
+          <t>0,0; 4,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 2,86</t>
+          <t>-3,01; 3,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 8,96</t>
+          <t>-0,41; 9,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 0,0</t>
+          <t>-1,97; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 647,27</t>
+          <t>-22,92; 628,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 3,05</t>
+          <t>-0,87; 2,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,07; 13,45</t>
+          <t>0,48; 13,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 0,0</t>
+          <t>-3,39; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,79; 1234,76</t>
+          <t>-19,8; 1420,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,65</t>
+          <t>0,0; 3,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,34; 11,07</t>
+          <t>2,12; 11,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 11,4</t>
+          <t>0,25; 12,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,39; 1251,38</t>
+          <t>48,54; 1191,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 0,0</t>
+          <t>-5,07; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 14,09</t>
+          <t>-3,92; 14,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 5,5</t>
+          <t>-1,65; 4,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-68,37; 643,66</t>
+          <t>-67,14; 731,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,88</t>
+          <t>0,0; 5,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 10,09</t>
+          <t>-2,8; 10,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 5,73</t>
+          <t>-2,07; 5,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1273,12 +1273,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,05; 10,13</t>
+          <t>1,96; 10,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,99</t>
+          <t>0,27; 2,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>43,38; 877,71</t>
+          <t>17,23; 890,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,12 +1373,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 2,93</t>
+          <t>-0,92; 3,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 1,6</t>
+          <t>-1,12; 1,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-67,52; 785,88</t>
+          <t>-63,19; 666,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 0,57</t>
+          <t>-0,11; 0,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,14</t>
+          <t>2,0; 5,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,47</t>
+          <t>-0,26; 1,41</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 1342,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>69,88; 297,83</t>
+          <t>80,25; 290,74</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 294,02</t>
+          <t>-34,18; 324,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/P16A98-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A98-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,11</t>
+          <t>0,0; 4,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 3,01</t>
+          <t>-2,99; 3,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 9,08</t>
+          <t>-0,65; 8,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,0</t>
+          <t>-1,78; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,92; 628,82</t>
+          <t>-29,79; 562,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,99</t>
+          <t>-0,87; 3,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 13,37</t>
+          <t>0,03; 12,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 0,0</t>
+          <t>-3,77; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 1420,44</t>
+          <t>-21,09; 1315,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,45</t>
+          <t>0,0; 3,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,12; 11,29</t>
+          <t>2,05; 11,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 12,17</t>
+          <t>0,08; 11,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,54; 1191,81</t>
+          <t>38,5; 1277,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 0,0</t>
+          <t>-5,91; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 14,97</t>
+          <t>-4,31; 14,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 4,67</t>
+          <t>-1,64; 5,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-67,14; 731,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,92</t>
+          <t>0,0; 5,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 10,42</t>
+          <t>-3,53; 8,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 5,6</t>
+          <t>-2,04; 5,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1273,12 +1273,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,96; 10,34</t>
+          <t>2,03; 10,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,67</t>
+          <t>0,27; 3,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,23; 890,02</t>
+          <t>26,11; 821,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,12 +1373,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 3,17</t>
+          <t>-1,07; 3,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,89</t>
+          <t>-0,97; 1,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-63,19; 666,46</t>
+          <t>-79,67; 464,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 0,58</t>
+          <t>-0,11; 0,6</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,0; 5,16</t>
+          <t>1,78; 5,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 1,41</t>
+          <t>-0,18; 1,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1342,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>80,25; 290,74</t>
+          <t>61,62; 287,67</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-34,18; 324,73</t>
+          <t>-23,63; 280,56</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
